--- a/dados/Sankey Receitas por Fonte.xlsx
+++ b/dados/Sankey Receitas por Fonte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.pereira\GitHub\fluxo-rec-desp\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.pereira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,473 +14,452 @@
   <sheets>
     <sheet name="1PREVISAO INICIAL DA RECEITA, " sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1PREVISAO INICIAL DA RECEITA, '!$A$11:$D$113</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="147">
+  <si>
+    <t>Filtro do relatório:</t>
+  </si>
+  <si>
+    <t>({Mês Lançamento} ({Sigla Completa (MMM/AAAA)}) = "JAN/2018") E ({Item Informação} = 1:PREVISAO INICIAL DA RECEITA) E ({Órgão UGE - Orçam. Fiscal S/N} = PERTENCE) E ({Unidade Orçamentária} (Código) &lt;&gt; "55902")</t>
+  </si>
+  <si>
+    <t>Páginas:</t>
+  </si>
+  <si>
+    <t>Item Informação: 1:PREVISAO INICIAL DA RECEITA</t>
+  </si>
+  <si>
+    <t>Mês Lançamento: JAN/2018</t>
+  </si>
+  <si>
+    <t>Métrica: Saldo R$ (Item Informação)</t>
+  </si>
+  <si>
+    <t>NRE3 Espécie Receita</t>
+  </si>
+  <si>
+    <t>Fonte Recursos</t>
+  </si>
+  <si>
+    <t>Saldo R$ (Item Informação)</t>
+  </si>
+  <si>
+    <t>Emissões de títulos</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>REFINANCIAMENTO DA DIV.PUBL.MOBIL.FEDERAL</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>TITULOS DE RESPONSABILID.DO TESOURO NACIONAL</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>OPERACOES DE CREDITO INTERNAS - EM MOEDA</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>OPERACOES DE CREDITO EXTERNAS-EM MOEDA</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>OPERACOES DE CREDITO EXTERNAS-BENS/SERVICOS</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>TITULOS DA DIVIDA AGRARIA</t>
+  </si>
+  <si>
+    <t>Juros e remunerações recebidas</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>RECURSOS NAO-FINANCEIROS DIRETAM. ARRECADADOS</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>REC.OPER.OF.CRED.-RET.REF.DIV.MED. E L.PRAZOS</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>RECURSOS DAS OPERACOES OFICIAIS DE CREDITO</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>RECURSOS FINANCEIROS DE APLICACAO VINCULADA</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>REC.DAS OPER.OF.DE CREDITO-RET.DE OC.-BEA/BIB</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>REC.DAS OPER.OF.DE CREDITO-RET.DE OC.EST.MUN.</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>RECURSOS FINANCEIROS DIRETAMENTE ARRECADADOS</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>PRODUTO DA APLIC.DOS REC.A CONTA DO SAL.EDUC.</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>DIVIDENDOS - UNIAO</t>
+  </si>
+  <si>
+    <t>Impostos</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>RECURSOS ORDINARIOS</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>IMPOSTO S/RENDA E S/PRODUTOS INDUSTRIALIZADOS</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>IMPOSTO TERRITORIAL RURAL</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>IMPOSTO S/OPERACOES FINANCEIRAS-OURO</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>RECURSOS DESTINADOS AO FUNDAF</t>
+  </si>
+  <si>
+    <t>Contribuições sociais (exceto RGPS) e econômicas</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>CONTR.FUNDO DE SAUDE POL.MIL.BOMBEIROS DO DF</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>CONTRIB.DERIV.PETROLEO,COMB.COM.-CIDE</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>CONTRIBUICAO DO SALARIO-EDUCACAO</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>CONTRIBUICAO P/OS PROG.ESPECIAIS-PIN-PROTERRA</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>CONTRIBUICOES SOBRE CONCURSOS DE PROGNOSTICOS</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>CONTRIBUICAO P/ CUSTEIO DE PENSOES MILITARES</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>CONTRIBUICAO P/O DES.DA IND.CINEMAT.NACIONAL</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>SELOS DE CONTROLE,LOJAS FRANCAS-FUNDAF</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>COTA-PARTE ADIC. FRETE RENOV.MARINHA MERCANTE</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>CONTRIBUICOES PARA OS PROGRAMAS PIS/PASEP</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>CONTR.SOCIAL S/O LUCRO DAS PESSOAS JURIDICAS</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>CONTRIBUICAO P/FINANCIAM.DA SEGURIDADE SOCIAL</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>CONTRIBUICAO PLANO SEGURIDADE SOCIAL SERVIDOR</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>CONTRIB.PATRONAL P/PLANO DE SEGURID.SOC.SERV.</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>OUTRAS CONTRIBUICOES ECONOMICAS</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>OUTRAS CONTRIBUICOES SOCIAIS</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>CONTRIBUICOES S/REMUN.DEV.AO TRABALHADOR-FGTS</t>
+  </si>
+  <si>
+    <t>Exploração de recursos naturais</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>FUNDO SOCIAL-PARC.DEST.EDUCACAO PUBL.E SAUDE</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>REC.OUTORGA DE DIR.DE USO DE REC.HIDRICOS-ANA</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>RECURSOS DE CONCESSOES E PERMISSOES</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>COMPENSACOES FINANC.P/UTILIZ.DE REC.HIDRICOS</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>COMPENSACOES FINANC.P/EXPLOR.DE REC.MINERAIS</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>COMPENS.FINANC.P/EXPL.DE PETR.OU GAS.NATURAL</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>PAGAMENTO PELO USO DE RECURSOS HIDRICOS</t>
+  </si>
+  <si>
+    <t>Resultado do Bacen</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>RESULTADO DO BACEN</t>
+  </si>
+  <si>
+    <t>Remuneração da Conta Única</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>REMUNERACAO DAS DISPONIB. DO TESOURO NACIONAL</t>
+  </si>
+  <si>
+    <t>Demais receitas</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>REC.ORIUNDOS CONTR.VOLUNTARIAS MONTEPIO CIVIL</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>CUSTAS E EMOLUMENTOS - PODER JUDICIARIO</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>RECURSOS DO PROG. DE ADM. PATRIM. IMOBILIARIO</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>REC.VINC.APLIC.EM OUTRAS POLITICAS PUBLICAS</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>ALIENACAO DE BENS APREENDIDOS</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>RECEITAS DE HONORARIOS DE ADVOGADOS</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>RECURSOS PRIMARIOS P/AMORT.DA DIVIDA PUBLICA</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>REC.PROP.DECOR.ALIEN.BENS E DIR.DO PATR.PUB.</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>TX/MUL.P/PODER DE POLICIA E MUL.PROV.PROC.JUD</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>TAXAS POR SERVICOS PUBLICOS</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>FUNDO DE FISCALIZACAO DAS TELECOMUNICACOES</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>RECURSOS DE CONVENIOS</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>REC.VINC.APLIC.POLITICAS PUBLICAS ESPECIFICAS</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>ALIENACAO DE TITULOS E VALORES MOBILIARIOS</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>DOACOES PARA COMBATE A FOME</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>DOACOES DE ENTIDADES INTERNACIONAIS</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>DOACOES DE PESSOAS FIS/INSTIT.PUBL.E PRIV.NAC</t>
+  </si>
+  <si>
+    <t>Contribuições e outras receitas do RGPS</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>RECURSOS DO REGIME GERAL DE PREVID.SOCIAL</t>
+  </si>
   <si>
     <t>Sankey Receitas por Fonte</t>
-  </si>
-  <si>
-    <t>Filtro do relatório:</t>
-  </si>
-  <si>
-    <t>({Mês Lançamento} ({Sigla Completa (MMM/AAAA)}) = "JAN/2018") E ({Item Informação} = 1:PREVISAO INICIAL DA RECEITA) E ({Órgão UGE - Orçam. Fiscal S/N} = PERTENCE) E ({Unidade Orçamentária} (Código) &lt;&gt; "55902")</t>
-  </si>
-  <si>
-    <t>Páginas:</t>
-  </si>
-  <si>
-    <t>Item Informação: 1:PREVISAO INICIAL DA RECEITA</t>
-  </si>
-  <si>
-    <t>Mês Lançamento: JAN/2018</t>
-  </si>
-  <si>
-    <t>Métrica: Saldo R$ (Item Informação)</t>
-  </si>
-  <si>
-    <t>NRE3 Espécie Receita</t>
-  </si>
-  <si>
-    <t>Fonte Recursos Código</t>
-  </si>
-  <si>
-    <t>Fonte Recursos Nome</t>
-  </si>
-  <si>
-    <t>Saldo R$ (Item Informação)</t>
-  </si>
-  <si>
-    <t>Exploração do patrimônio do Estado e alienações de bens</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>RECURSOS ORDINARIOS</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>RECURSOS DE CONCESSOES E PERMISSOES</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>RECURSOS DO PROG. DE ADM. PATRIM. IMOBILIARIO</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>ALIENACAO DE BENS APREENDIDOS</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>RECURSOS NAO-FINANCEIROS DIRETAM. ARRECADADOS</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>RECURSOS DAS OPERACOES OFICIAIS DE CREDITO</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>RECURSOS PRIMARIOS P/AMORT.DA DIVIDA PUBLICA</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>REC.PROP.DECOR.ALIEN.BENS E DIR.DO PATR.PUB.</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>FUNDO DE FISCALIZACAO DAS TELECOMUNICACOES</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>REC.VINC.APLIC.POLITICAS PUBLICAS ESPECIFICAS</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>ALIENACAO DE TITULOS E VALORES MOBILIARIOS</t>
-  </si>
-  <si>
-    <t>Serviços não financeiros</t>
-  </si>
-  <si>
-    <t>Emissões de títulos</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>REFINANCIAMENTO DA DIV.PUBL.MOBIL.FEDERAL</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>TITULOS DE RESPONSABILID.DO TESOURO NACIONAL</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>OPERACOES DE CREDITO INTERNAS - EM MOEDA</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>OPERACOES DE CREDITO EXTERNAS-EM MOEDA</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>OPERACOES DE CREDITO EXTERNAS-BENS/SERVICOS</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>TITULOS DA DIVIDA AGRARIA</t>
-  </si>
-  <si>
-    <t>Recebimentos do principal de empréstimos concedidos</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>REC.OPER.OF.CRED.-RET.REF.DIV.MED. E L.PRAZOS</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>RECURSOS FINANCEIROS DE APLICACAO VINCULADA</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>REC.DAS OPER.OF.DE CREDITO-RET.DE OC.-BEA/BIB</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>REC.DAS OPER.OF.DE CREDITO-RET.DE OC.EST.MUN.</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>RECURSOS FINANCEIROS DIRETAMENTE ARRECADADOS</t>
-  </si>
-  <si>
-    <t>Impostos</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>IMPOSTO S/RENDA E S/PRODUTOS INDUSTRIALIZADOS</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>IMPOSTO TERRITORIAL RURAL</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>IMPOSTO S/OPERACOES FINANCEIRAS-OURO</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>RECURSOS DESTINADOS AO FUNDAF</t>
-  </si>
-  <si>
-    <t>Contribuições sociais (exceto RGPS)</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>CONTR.FUNDO DE SAUDE POL.MIL.BOMBEIROS DO DF</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>CONTRIBUICAO DO SALARIO-EDUCACAO</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>CONTRIBUICOES SOBRE CONCURSOS DE PROGNOSTICOS</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>CONTRIBUICAO P/ CUSTEIO DE PENSOES MILITARES</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>CONTRIBUICOES PARA OS PROGRAMAS PIS/PASEP</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>CONTR.SOCIAL S/O LUCRO DAS PESSOAS JURIDICAS</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>CONTRIBUICAO P/FINANCIAM.DA SEGURIDADE SOCIAL</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>CONTRIBUICAO PLANO SEGURIDADE SOCIAL SERVIDOR</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>CONTRIB.PATRONAL P/PLANO DE SEGURID.SOC.SERV.</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>OUTRAS CONTRIBUICOES SOCIAIS</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>CONTRIBUICOES S/REMUN.DEV.AO TRABALHADOR-FGTS</t>
-  </si>
-  <si>
-    <t>Contribuições Econômicas</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>CONTRIB.DERIV.PETROLEO,COMB.COM.-CIDE</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>CONTRIBUICAO P/OS PROG.ESPECIAIS-PIN-PROTERRA</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>CONTRIBUICAO P/O DES.DA IND.CINEMAT.NACIONAL</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>SELOS DE CONTROLE,LOJAS FRANCAS-FUNDAF</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>COTA-PARTE ADIC. FRETE RENOV.MARINHA MERCANTE</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>OUTRAS CONTRIBUICOES ECONOMICAS</t>
-  </si>
-  <si>
-    <t>Exploração de recursos naturais</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>FUNDO SOCIAL-PARC.DEST.EDUCACAO PUBL.E SAUDE</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>REC.OUTORGA DE DIR.DE USO DE REC.HIDRICOS-ANA</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>COMPENSACOES FINANC.P/UTILIZ.DE REC.HIDRICOS</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>COMPENSACOES FINANC.P/EXPLOR.DE REC.MINERAIS</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>COMPENS.FINANC.P/EXPL.DE PETR.OU GAS.NATURAL</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>PAGAMENTO PELO USO DE RECURSOS HIDRICOS</t>
-  </si>
-  <si>
-    <t>Juros e remunerações recebidos</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>PRODUTO DA APLIC.DOS REC.A CONTA DO SAL.EDUC.</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>DIVIDENDOS - UNIAO</t>
-  </si>
-  <si>
-    <t>Taxas, multas e indenizações</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>CUSTAS E EMOLUMENTOS - PODER JUDICIARIO</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>REC.VINC.APLIC.EM OUTRAS POLITICAS PUBLICAS</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>TX/MUL.P/PODER DE POLICIA E MUL.PROV.PROC.JUD</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>TAXAS POR SERVICOS PUBLICOS</t>
-  </si>
-  <si>
-    <t>Resultado do Bacen</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>RESULTADO DO BACEN</t>
-  </si>
-  <si>
-    <t>Remuneração da Conta Única</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>REMUNERACAO DAS DISPONIB. DO TESOURO NACIONAL</t>
-  </si>
-  <si>
-    <t>Todos os Outros</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>REC.ORIUNDOS CONTR.VOLUNTARIAS MONTEPIO CIVIL</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>RECEITAS DE HONORARIOS DE ADVOGADOS</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>RECURSOS DE CONVENIOS</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>DOACOES PARA COMBATE A FOME</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>DOACOES DE ENTIDADES INTERNACIONAIS</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>DOACOES DE PESSOAS FIS/INSTIT.PUBL.E PRIV.NAC</t>
-  </si>
-  <si>
-    <t>Contribuições e outras receitas do RGPS</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>RECURSOS DO REGIME GERAL DE PREVID.SOCIAL</t>
   </si>
 </sst>
 </file>
@@ -944,10 +923,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -960,22 +939,22 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -983,7 +962,7 @@
     </row>
     <row r="7" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -991,7 +970,7 @@
     </row>
     <row r="8" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -999,1507 +978,1169 @@
     </row>
     <row r="9" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" s="6">
-        <v>1434036643</v>
+        <v>1139498878502</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6">
-        <v>4980695441</v>
+        <v>495008443867</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6">
-        <v>29476803</v>
+        <v>4352770</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6">
-        <v>196894355</v>
+        <v>1989786100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6">
-        <v>2214397802</v>
+        <v>1844665184</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6">
-        <v>1400000000</v>
+        <v>53497638</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D18" s="6">
-        <v>12120513</v>
+        <v>655112604</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D19" s="6">
-        <v>1633718126</v>
+        <v>141814502432</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D20" s="6">
-        <v>535459158</v>
+        <v>1019986399</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" s="6">
-        <v>1394674731</v>
+        <v>19608591</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" s="6">
-        <v>257751</v>
+        <v>622052389</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D23" s="6">
-        <v>4113413</v>
+        <v>22002599696</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6">
-        <v>8181712152</v>
+        <v>35843469762</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6">
-        <v>1889115</v>
+        <v>143561909</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D26" s="6">
-        <v>577548854</v>
+        <v>6782000000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6">
-        <v>1139498878502</v>
+        <v>274934525275</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D28" s="6">
-        <v>495008443867</v>
+        <v>203563779772</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D29" s="6">
-        <v>4352770</v>
+        <v>1314202976</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D30" s="6">
-        <v>1989786100</v>
+        <v>33594327</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D31" s="6">
-        <v>1844665184</v>
+        <v>2865043411</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D32" s="6">
-        <v>53497638</v>
+        <v>121929994032</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D33" s="6">
-        <v>137335673554</v>
+        <v>14087350</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D34" s="6">
-        <v>997250394</v>
+        <v>5016967615</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D35" s="6">
-        <v>19399447</v>
+        <v>21691658947</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D36" s="6">
-        <v>426076054</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D37" s="6">
-        <v>8883058798</v>
+        <v>3967429615</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D38" s="6">
-        <v>9057787378</v>
+        <v>2321622667</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D39" s="6">
-        <v>274934525275</v>
+        <v>829722040</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D40" s="6">
-        <v>203563779772</v>
+        <v>174411901</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D41" s="6">
-        <v>1314202976</v>
+        <v>4238491379</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D42" s="6">
-        <v>33594327</v>
+        <v>1874218201</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D43" s="6">
-        <v>2865043411</v>
+        <v>45137471969</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D44" s="6">
-        <v>117542713636</v>
+        <v>49957659758</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D45" s="6">
-        <v>14087350</v>
+        <v>168792583660</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D46" s="6">
-        <v>21691658947</v>
+        <v>15932600479</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D47" s="6">
-        <v>3967429615</v>
+        <v>25079452894</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D48" s="6">
-        <v>2321622667</v>
+        <v>4192203192</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D49" s="6">
-        <v>4234506530</v>
+        <v>1969842650</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D50" s="6">
-        <v>45137471969</v>
+        <v>3821811361</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D51" s="6">
-        <v>49957659758</v>
+        <v>5827665271</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D52" s="6">
-        <v>168792583660</v>
+        <v>88394647</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D53" s="6">
-        <v>15932600479</v>
+        <v>12578364828</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D54" s="6">
-        <v>25079452894</v>
+        <v>2409337420</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D55" s="6">
-        <v>1969842650</v>
+        <v>3365192592</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D56" s="6">
-        <v>3821811361</v>
+        <v>32589861878</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D57" s="6">
-        <v>4387280396</v>
+        <v>209052811</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D58" s="6">
-        <v>5016967615</v>
+        <v>46520000000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D59" s="6">
-        <v>4821</v>
+        <v>92832641199</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D60" s="6">
-        <v>829722040</v>
+        <v>17629701771</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D61" s="6">
-        <v>174411901</v>
+        <v>253355000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D62" s="6">
-        <v>3984849</v>
+        <v>350180</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D63" s="6">
-        <v>1874218201</v>
+        <v>520865027</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D64" s="6">
-        <v>4192203192</v>
+        <v>4980695441</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D65" s="6">
-        <v>5827665271</v>
+        <v>6424652</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D66" s="6">
-        <v>88394647</v>
+        <v>849226858</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D67" s="6">
-        <v>12578364828</v>
+        <v>54466865</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D68" s="6">
-        <v>2409337420</v>
+        <v>524889737</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D69" s="6">
-        <v>3365192592</v>
+        <v>196894355</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D70" s="6">
-        <v>32589861878</v>
+        <v>111470385</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="D71" s="6">
-        <v>209052811</v>
+        <v>17716546452</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D72" s="6">
-        <v>655112604</v>
+        <v>791529735</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D73" s="6">
-        <v>4478828878</v>
+        <v>12666129304</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D74" s="6">
-        <v>22736005</v>
+        <v>1186214</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D75" s="6">
-        <v>209144</v>
+        <v>13581755</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="D76" s="6">
-        <v>195976335</v>
+        <v>6255164</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D77" s="6">
-        <v>13119540898</v>
+        <v>1400000000</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D78" s="6">
-        <v>26785682384</v>
+        <v>12126397</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D79" s="6">
-        <v>143561909</v>
+        <v>1633718126</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D80" s="6">
-        <v>6782000000</v>
+        <v>8273075331</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="D81" s="6">
-        <v>5035151773</v>
+        <v>7380646</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D82" s="6">
-        <v>520865027</v>
+        <v>2194134566</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D83" s="6">
-        <v>6424652</v>
+        <v>18582847017</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="D84" s="6">
-        <v>826904722</v>
+        <v>954177194</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D85" s="6">
-        <v>15373061</v>
+        <v>6444609145</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D86" s="6">
-        <v>524889737</v>
+        <v>257751</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="D87" s="6">
-        <v>111470385</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="D88" s="6">
-        <v>1457354178</v>
+        <v>30814351</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D89" s="6">
-        <v>1186214</v>
+        <v>270283511</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D90" s="6">
-        <v>13581755</v>
+        <v>906301830</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D91" s="6">
-        <v>5884</v>
+        <v>392884403057</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="D92" s="6">
-        <v>8272342060</v>
+        <v>1580059379</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D93" s="6">
-        <v>7380646</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" s="6">
-        <v>1656786293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D95" s="6">
-        <v>330619248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D96" s="6">
-        <v>46520000000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" s="6">
-        <v>92832641199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="6">
-        <v>11156399942</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" s="6">
-        <v>253355000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D100" s="6">
-        <v>350180</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D101" s="6">
-        <v>22322136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="6">
-        <v>9617001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D103" s="6">
-        <v>17716546452</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D104" s="6">
-        <v>791529735</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="6">
-        <v>812665172</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D106" s="6">
-        <v>6255164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" s="6">
-        <v>733271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D108" s="6">
-        <v>18582847017</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D109" s="6">
-        <v>954177194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" s="6">
-        <v>4141766312</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111" s="6">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D112" s="6">
-        <v>30814351</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D113" s="6">
-        <v>270283511</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="6">
-        <v>906301830</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115" s="6">
-        <v>392884403057</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D116" s="6">
-        <v>1580059379</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D117" s="6">
         <v>11546914344</v>
       </c>
     </row>
